--- a/data/123-madao_service/123-madao_service_structure.xlsx
+++ b/data/123-madao_service/123-madao_service_structure.xlsx
@@ -42,7 +42,7 @@
     <t>com.madao.auth.handler.CustomAuthenticationSuccessHandler</t>
   </si>
   <si>
-    <t>insertLoginLog(javax.servlet.http.HttpServletRequest)</t>
+    <t>insertLoginLog(java.lang.String,java.lang.String,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>service-base</t>
@@ -102,7 +102,7 @@
     <t>com.madao.base.service.backstage.OptLogService</t>
   </si>
   <si>
-    <t>findOptLogByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findOptLogByCondition(com.madao.model.dto.base.OptLogDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>findUserByUserIds(java.lang.String[])</t>
@@ -111,7 +111,7 @@
     <t>com.madao.base.service.backstage.LoginLogService</t>
   </si>
   <si>
-    <t>findLoginLogByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findLoginLogByCondition(com.madao.model.dto.base.LoginLogDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>service-api</t>
@@ -138,13 +138,13 @@
     <t>com.madao.article.service.blog.ApiTagsService</t>
   </si>
   <si>
-    <t>findTagsByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findTagsByCondition(com.madao.model.dto.article.TagDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>com.madao.article.service.backstage.ArticleService</t>
   </si>
   <si>
-    <t>findArticleByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findArticleByCondition(com.madao.model.dto.article.ArticleDto,org.springframework.data.domain.Pageable)</t>
   </si>
 </sst>
 </file>
